--- a/Codes Données/pib_D_vol.xlsx
+++ b/Codes Données/pib_D_vol.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AL125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,187 +372,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consumo final individual efectivo -  - </t>
+          <t>Consumo final individual efectivo_volume</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demanda externa -  - </t>
+          <t>Demanda externa_volume</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demanda nacional -  - </t>
+          <t>Demanda nacional_volume</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exportaciones de bienes -  - </t>
+          <t>Exportaciones de bienes_volume</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exportaciones de bienes y servicios -  - </t>
+          <t>Exportaciones de bienes y servicios_volume</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exportaciones de servicios -  - </t>
+          <t>Exportaciones de servicios_volume</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exportaciones de servicios - Gasto de los hogares no residentes en el territorio económico - </t>
+          <t>Exportaciones de servicios - Gasto de los hogares no residentes en el territorio económico_volume</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos inmateriales - Productos de la propiedad intelectual</t>
+          <t>FBCF - Activos fijos inmateriales - Productos de la propiedad intelectual_volume</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">FBCF - Activos fijos materiales - </t>
+          <t>FBCF - Activos fijos materiales_volume</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos materiales - Construcción</t>
+          <t>FBCF - Activos fijos materiales - Construcción_volume</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos materiales - Construcción - Otros edificios y construcciones</t>
+          <t>FBCF - Activos fijos materiales - Construcción - Otros edificios y construcciones_volume</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos materiales - Construcción - Viviendas</t>
+          <t>FBCF - Activos fijos materiales - Construcción - Viviendas_volume</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos materiales - Maquinaria, bienes de equipo y sistemas de armamento</t>
+          <t>FBCF - Activos fijos materiales - Maquinaria, bienes de equipo y sistemas de armamento_volume</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos materiales - Maquinaria, bienes de equipo y sistemas de armamento - Material de transporte</t>
+          <t>FBCF - Activos fijos materiales - Maquinaria, bienes de equipo y sistemas de armamento - Material de transporte_volume</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>FBCF - Activos fijos materiales - Maquinaria, bienes de equipo y sistemas de armamento - Otros</t>
+          <t>FBCF - Activos fijos materiales - Maquinaria, bienes de equipo y sistemas de armamento - Otros_volume</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">FBCF - Activos fijos materiales.Recursos biológicos cultivados - </t>
+          <t>FBCF - Activos fijos materiales.Recursos biológicos cultivados_volume</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formación bruta de capital -  - </t>
+          <t>Formación bruta de capital_volume</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formación bruta de capital fijo (FBCF) -  - </t>
+          <t>Formación bruta de capital fijo (FBCF)_volume</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en Consumo Final Interior en No Duraderos -  - </t>
+          <t>Gasto en Consumo Final Interior en No Duraderos_volume</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en Consumo Final Interior en Semiduraderos -  - </t>
+          <t>Gasto en Consumo Final Interior en Semiduraderos_volume</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en Consumo Final Interior en Servicios -  - </t>
+          <t>Gasto en Consumo Final Interior en Servicios_volume</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final -  - </t>
+          <t>Gasto en consumo final_volume</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final colectivo de las AAPP -  - </t>
+          <t>Gasto en consumo final colectivo de las AAPP_volume</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final de las AAPP -  - </t>
+          <t>Gasto en consumo final de las AAPP_volume</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final de las ISFLSH -  - </t>
+          <t>Gasto en consumo final de las ISFLSH_volume</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final de los hogares -  - </t>
+          <t>Gasto en consumo final de los hogares_volume</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final de los hogares y las ISFLSH -  - </t>
+          <t>Gasto en consumo final de los hogares y las ISFLSH_volume</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final individual de las AAPP -  - </t>
+          <t>Gasto en consumo final individual de las AAPP_volume</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final interior de los hogares -  - </t>
+          <t>Gasto en consumo final interior de los hogares_volume</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final interior de los hogares - Bienes duraderos - </t>
+          <t>Gasto en consumo final interior de los hogares - Bienes duraderos_volume</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasto en consumo final interior de los hogares - Otros bienes y servicios - </t>
+          <t>Gasto en consumo final interior de los hogares - Otros bienes y servicios_volume</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Importaciones de bienes -  - </t>
+          <t>Importaciones de bienes_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Importaciones de bienes y servicios -  - </t>
+          <t>Importaciones de bienes y servicios_volume</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Importaciones de servicios -  - </t>
+          <t>Importaciones de servicios_volume</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Importaciones de servicios - Gasto de los hogares residentes en el resto del mundo - </t>
+          <t>Importaciones de servicios - Gasto de los hogares residentes en el resto del mundo_volume</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Producto interior bruto a precios de mercado -  - </t>
+          <t>Producto interior bruto a precios de mercado_volume</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variación de existencias y adquisiciones menos cesiones de objetos valiosos -  - </t>
+          <t>Variación de existencias y adquisiciones menos cesiones de objetos valiosos_volume</t>
         </is>
       </c>
     </row>
@@ -13761,109 +13761,109 @@
         <v>45658</v>
       </c>
       <c r="B122">
-        <v>118.9698</v>
+        <v>118.9053</v>
       </c>
       <c r="D122">
-        <v>119.5629</v>
+        <v>119.5228</v>
       </c>
       <c r="E122">
-        <v>111.7895</v>
+        <v>111.5682</v>
       </c>
       <c r="F122">
-        <v>140.3296</v>
+        <v>139.9387</v>
       </c>
       <c r="G122">
-        <v>248.4029</v>
+        <v>247.3569</v>
       </c>
       <c r="H122">
-        <v>526.2995</v>
+        <v>524.1107</v>
       </c>
       <c r="I122">
-        <v>143.7151</v>
+        <v>143.3817</v>
       </c>
       <c r="J122">
-        <v>117.442</v>
+        <v>117.3032</v>
       </c>
       <c r="K122">
-        <v>117.9917</v>
+        <v>117.6828</v>
       </c>
       <c r="L122">
-        <v>120.1169</v>
+        <v>119.9619</v>
       </c>
       <c r="M122">
-        <v>116.1786</v>
+        <v>115.7415</v>
       </c>
       <c r="N122">
-        <v>117.5911</v>
+        <v>117.7617</v>
       </c>
       <c r="O122">
-        <v>125.9798</v>
+        <v>126.4651</v>
       </c>
       <c r="P122">
-        <v>113.8624</v>
+        <v>113.9046</v>
       </c>
       <c r="Q122">
         <v>86.0949</v>
       </c>
       <c r="R122">
-        <v>124.1893</v>
+        <v>124.1152</v>
       </c>
       <c r="S122">
-        <v>121.9815</v>
+        <v>121.8103</v>
       </c>
       <c r="T122">
-        <v>97.8712</v>
+        <v>97.94410000000001</v>
       </c>
       <c r="U122">
-        <v>138.2124</v>
+        <v>137.7413</v>
       </c>
       <c r="V122">
-        <v>140.5136</v>
+        <v>140.4178</v>
       </c>
       <c r="W122">
-        <v>118.353</v>
+        <v>118.3221</v>
       </c>
       <c r="X122">
-        <v>113.3648</v>
+        <v>113.6099</v>
       </c>
       <c r="Y122">
-        <v>113.5286</v>
+        <v>113.5111</v>
       </c>
       <c r="Z122">
         <v>124.8185</v>
       </c>
       <c r="AA122">
-        <v>120.1098</v>
+        <v>120.0733</v>
       </c>
       <c r="AB122">
-        <v>120.2123</v>
+        <v>120.1765</v>
       </c>
       <c r="AC122">
-        <v>113.6374</v>
+        <v>113.4455</v>
       </c>
       <c r="AD122">
-        <v>126.9349</v>
+        <v>126.8924</v>
       </c>
       <c r="AE122">
-        <v>149.6248</v>
+        <v>149.7916</v>
       </c>
       <c r="AF122">
-        <v>125.393</v>
+        <v>125.3367</v>
       </c>
       <c r="AG122">
-        <v>125.5552</v>
+        <v>125.644</v>
       </c>
       <c r="AH122">
-        <v>132.2671</v>
+        <v>132.2087</v>
       </c>
       <c r="AI122">
-        <v>169.0022</v>
+        <v>168.1504</v>
       </c>
       <c r="AJ122">
-        <v>348.9735</v>
+        <v>344.7999</v>
       </c>
       <c r="AK122">
-        <v>122.465</v>
+        <v>122.3159</v>
       </c>
     </row>
     <row r="123">
@@ -13871,109 +13871,109 @@
         <v>45748</v>
       </c>
       <c r="B123">
-        <v>119.8495</v>
+        <v>119.9048</v>
       </c>
       <c r="D123">
-        <v>120.647</v>
+        <v>120.6439</v>
       </c>
       <c r="E123">
-        <v>114.0809</v>
+        <v>113.7558</v>
       </c>
       <c r="F123">
-        <v>142.3222</v>
+        <v>141.7519</v>
       </c>
       <c r="G123">
-        <v>249.1637</v>
+        <v>247.6467</v>
       </c>
       <c r="H123">
-        <v>529.8502999999999</v>
+        <v>526.6643</v>
       </c>
       <c r="I123">
-        <v>144.8029</v>
+        <v>144.6011</v>
       </c>
       <c r="J123">
-        <v>118.3548</v>
+        <v>118.4086</v>
       </c>
       <c r="K123">
-        <v>118.7695</v>
+        <v>118.6502</v>
       </c>
       <c r="L123">
-        <v>119.4017</v>
+        <v>119.3301</v>
       </c>
       <c r="M123">
-        <v>118.2002</v>
+        <v>118.0413</v>
       </c>
       <c r="N123">
-        <v>118.7349</v>
+        <v>119.1161</v>
       </c>
       <c r="O123">
-        <v>124.9053</v>
+        <v>125.7199</v>
       </c>
       <c r="P123">
-        <v>115.9042</v>
+        <v>116.1084</v>
       </c>
       <c r="Q123">
-        <v>87.46939999999999</v>
+        <v>87.3445</v>
       </c>
       <c r="R123">
-        <v>126.5922</v>
+        <v>126.2489</v>
       </c>
       <c r="S123">
-        <v>122.9248</v>
+        <v>122.9364</v>
       </c>
       <c r="T123">
-        <v>98.3216</v>
+        <v>98.4269</v>
       </c>
       <c r="U123">
-        <v>138.63</v>
+        <v>137.9554</v>
       </c>
       <c r="V123">
-        <v>141.6762</v>
+        <v>141.8764</v>
       </c>
       <c r="W123">
-        <v>119.0757</v>
+        <v>119.166</v>
       </c>
       <c r="X123">
-        <v>112.7466</v>
+        <v>113.1014</v>
       </c>
       <c r="Y123">
-        <v>113.5753</v>
+        <v>113.5505</v>
       </c>
       <c r="Z123">
-        <v>125.7308</v>
+        <v>125.7032</v>
       </c>
       <c r="AA123">
-        <v>121.0816</v>
+        <v>121.2172</v>
       </c>
       <c r="AB123">
-        <v>121.183</v>
+        <v>121.3154</v>
       </c>
       <c r="AC123">
-        <v>114.1256</v>
+        <v>113.8487</v>
       </c>
       <c r="AD123">
-        <v>127.8427</v>
+        <v>127.9698</v>
       </c>
       <c r="AE123">
-        <v>151.0824</v>
+        <v>151.3195</v>
       </c>
       <c r="AF123">
-        <v>126.2643</v>
+        <v>126.3842</v>
       </c>
       <c r="AG123">
-        <v>127.9417</v>
+        <v>128.0721</v>
       </c>
       <c r="AH123">
-        <v>134.8836</v>
+        <v>134.7951</v>
       </c>
       <c r="AI123">
-        <v>172.8693</v>
+        <v>171.6009</v>
       </c>
       <c r="AJ123">
-        <v>362.0827</v>
+        <v>355.7689</v>
       </c>
       <c r="AK123">
-        <v>123.3707</v>
+        <v>123.2089</v>
       </c>
     </row>
     <row r="124">
@@ -13981,109 +13981,219 @@
         <v>45839</v>
       </c>
       <c r="B124">
-        <v>121.0635</v>
+        <v>121.0108</v>
       </c>
       <c r="D124">
-        <v>122.2875</v>
+        <v>122.3403</v>
       </c>
       <c r="E124">
-        <v>112.8199</v>
+        <v>112.4349</v>
       </c>
       <c r="F124">
-        <v>141.4313</v>
+        <v>140.7501</v>
       </c>
       <c r="G124">
-        <v>249.7524</v>
+        <v>247.9274</v>
       </c>
       <c r="H124">
-        <v>531.5285</v>
+        <v>527.6858</v>
       </c>
       <c r="I124">
-        <v>147.7681</v>
+        <v>147.8558</v>
       </c>
       <c r="J124">
-        <v>120.8192</v>
+        <v>121.0222</v>
       </c>
       <c r="K124">
-        <v>121.4955</v>
+        <v>121.463</v>
       </c>
       <c r="L124">
-        <v>124.2652</v>
+        <v>124.3487</v>
       </c>
       <c r="M124">
-        <v>119.144</v>
+        <v>119.0148</v>
       </c>
       <c r="N124">
-        <v>120.7716</v>
+        <v>121.4237</v>
       </c>
       <c r="O124">
-        <v>124.7493</v>
+        <v>125.8759</v>
       </c>
       <c r="P124">
-        <v>118.8261</v>
+        <v>119.2838</v>
       </c>
       <c r="Q124">
-        <v>88.4691</v>
+        <v>88.3441</v>
       </c>
       <c r="R124">
-        <v>129.2274</v>
+        <v>129.4681</v>
       </c>
       <c r="S124">
-        <v>125.4761</v>
+        <v>125.6604</v>
       </c>
       <c r="T124">
-        <v>99.702</v>
+        <v>99.8284</v>
       </c>
       <c r="U124">
-        <v>142.2598</v>
+        <v>141.4247</v>
       </c>
       <c r="V124">
-        <v>142.1405</v>
+        <v>142.1183</v>
       </c>
       <c r="W124">
-        <v>120.4441</v>
+        <v>120.4453</v>
       </c>
       <c r="X124">
-        <v>115.3769</v>
+        <v>115.8049</v>
       </c>
       <c r="Y124">
-        <v>115.1007</v>
+        <v>115.0701</v>
       </c>
       <c r="Z124">
-        <v>127.7766</v>
+        <v>127.7489</v>
       </c>
       <c r="AA124">
-        <v>122.3791</v>
+        <v>122.3927</v>
       </c>
       <c r="AB124">
-        <v>122.495</v>
+        <v>122.5078</v>
       </c>
       <c r="AC124">
-        <v>114.9174</v>
+        <v>114.5822</v>
       </c>
       <c r="AD124">
-        <v>129.1431</v>
+        <v>129.149</v>
       </c>
       <c r="AE124">
-        <v>157.6065</v>
+        <v>157.9051</v>
       </c>
       <c r="AF124">
-        <v>127.2229</v>
+        <v>127.2097</v>
       </c>
       <c r="AG124">
-        <v>129.9487</v>
+        <v>130.1079</v>
       </c>
       <c r="AH124">
-        <v>136.7037</v>
+        <v>136.5968</v>
       </c>
       <c r="AI124">
-        <v>173.6899</v>
+        <v>172.1481</v>
       </c>
       <c r="AJ124">
-        <v>364.0625</v>
+        <v>356.3574</v>
       </c>
       <c r="AK124">
-        <v>124.1297</v>
+        <v>123.9924</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B125">
+        <v>121.9247</v>
+      </c>
+      <c r="D125">
+        <v>123.5418</v>
+      </c>
+      <c r="E125">
+        <v>112.39</v>
+      </c>
+      <c r="F125">
+        <v>141.8573</v>
+      </c>
+      <c r="G125">
+        <v>253.529</v>
+      </c>
+      <c r="H125">
+        <v>535.9062</v>
+      </c>
+      <c r="I125">
+        <v>151.6106</v>
+      </c>
+      <c r="J125">
+        <v>123.6375</v>
+      </c>
+      <c r="K125">
+        <v>124.7093</v>
+      </c>
+      <c r="L125">
+        <v>127.3288</v>
+      </c>
+      <c r="M125">
+        <v>122.4818</v>
+      </c>
+      <c r="N125">
+        <v>122.9086</v>
+      </c>
+      <c r="O125">
+        <v>134.2988</v>
+      </c>
+      <c r="P125">
+        <v>117.946</v>
+      </c>
+      <c r="Q125">
+        <v>89.96850000000001</v>
+      </c>
+      <c r="R125">
+        <v>131.6745</v>
+      </c>
+      <c r="S125">
+        <v>128.4685</v>
+      </c>
+      <c r="T125">
+        <v>100.4392</v>
+      </c>
+      <c r="U125">
+        <v>144.9581</v>
+      </c>
+      <c r="V125">
+        <v>143.4986</v>
+      </c>
+      <c r="W125">
+        <v>121.3716</v>
+      </c>
+      <c r="X125">
+        <v>116.7269</v>
+      </c>
+      <c r="Y125">
+        <v>115.2306</v>
+      </c>
+      <c r="Z125">
+        <v>128.6059</v>
+      </c>
+      <c r="AA125">
+        <v>123.6068</v>
+      </c>
+      <c r="AB125">
+        <v>123.7152</v>
+      </c>
+      <c r="AC125">
+        <v>114.2373</v>
+      </c>
+      <c r="AD125">
+        <v>130.456</v>
+      </c>
+      <c r="AE125">
+        <v>160.4691</v>
+      </c>
+      <c r="AF125">
+        <v>128.4339</v>
+      </c>
+      <c r="AG125">
+        <v>131.702</v>
+      </c>
+      <c r="AH125">
+        <v>138.4957</v>
+      </c>
+      <c r="AI125">
+        <v>175.6981</v>
+      </c>
+      <c r="AJ125">
+        <v>363.902</v>
+      </c>
+      <c r="AK125">
+        <v>124.9473</v>
       </c>
     </row>
   </sheetData>
